--- a/Fundamental/project/laliga2019/goalandShotcreation.xlsx
+++ b/Fundamental/project/laliga2019/goalandShotcreation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\project\laliga2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05471F94-97E8-4C23-9B1B-3C00A6D0CA43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D121887-85C1-4614-950F-8E9FCA8E9497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{14A1706B-7BD1-4FAB-9C7E-0DADAE8DBF77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{14A1706B-7BD1-4FAB-9C7E-0DADAE8DBF77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>SCA</t>
   </si>
@@ -214,13 +214,19 @@
   </si>
   <si>
     <t>SEN</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>GCA Types</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +253,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
@@ -427,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -485,6 +504,49 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,13 +556,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -816,43 +880,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB4B6C4-F10A-44F2-B24C-E97FD2875404}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" customWidth="1"/>
     <col min="9" max="9" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="22"/>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="37"/>
+      <c r="O1" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -895,9 +967,27 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="O2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -939,9 +1029,27 @@
       <c r="N3" s="12">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="O3" s="29">
+        <v>1</v>
+      </c>
+      <c r="P3" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25">
+        <v>0</v>
+      </c>
+      <c r="S3" s="25">
+        <v>0</v>
+      </c>
+      <c r="T3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -983,9 +1091,27 @@
       <c r="N4" s="12">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="O4" s="29">
+        <v>1</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>0</v>
+      </c>
+      <c r="R4" s="25">
+        <v>0</v>
+      </c>
+      <c r="S4" s="25">
+        <v>0</v>
+      </c>
+      <c r="T4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1027,9 +1153,27 @@
       <c r="N5" s="12">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="O5" s="29">
+        <v>22</v>
+      </c>
+      <c r="P5" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>5</v>
+      </c>
+      <c r="R5" s="25">
+        <v>2</v>
+      </c>
+      <c r="S5" s="25">
+        <v>2</v>
+      </c>
+      <c r="T5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1071,9 +1215,27 @@
       <c r="N6" s="12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="O6" s="29">
+        <v>9</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>1</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0</v>
+      </c>
+      <c r="T6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1115,9 +1277,27 @@
       <c r="N7" s="12">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="O7" s="29">
+        <v>9</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>1</v>
+      </c>
+      <c r="R7" s="25">
+        <v>0</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0</v>
+      </c>
+      <c r="T7" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1159,9 +1339,27 @@
       <c r="N8" s="12">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="O8" s="29">
+        <v>3</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0</v>
+      </c>
+      <c r="T8" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1203,9 +1401,27 @@
       <c r="N9" s="12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="O9" s="29">
+        <v>9</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0</v>
+      </c>
+      <c r="T9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1247,9 +1463,27 @@
       <c r="N10" s="12">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="O10" s="29">
+        <v>5</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -1291,9 +1525,27 @@
       <c r="N11" s="12">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="O11" s="29">
+        <v>8</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="25">
+        <v>1</v>
+      </c>
+      <c r="T11" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -1335,9 +1587,27 @@
       <c r="N12" s="12">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="O12" s="29">
+        <v>3</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="25">
+        <v>3</v>
+      </c>
+      <c r="T12" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -1379,9 +1649,27 @@
       <c r="N13" s="12">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="O13" s="29">
+        <v>13</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>2</v>
+      </c>
+      <c r="R13" s="25">
+        <v>1</v>
+      </c>
+      <c r="S13" s="25">
+        <v>1</v>
+      </c>
+      <c r="T13" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -1423,9 +1711,27 @@
       <c r="N14" s="12">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="O14" s="29">
+        <v>6</v>
+      </c>
+      <c r="P14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>0</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0</v>
+      </c>
+      <c r="S14" s="25">
+        <v>2</v>
+      </c>
+      <c r="T14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -1467,9 +1773,27 @@
       <c r="N15" s="12">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="O15" s="29">
+        <v>5</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0</v>
+      </c>
+      <c r="T15" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1511,9 +1835,27 @@
       <c r="N16" s="12">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="O16" s="29">
+        <v>5</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>0</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="S16" s="25">
+        <v>3</v>
+      </c>
+      <c r="T16" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -1555,9 +1897,27 @@
       <c r="N17" s="12">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="O17" s="29">
+        <v>1</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>2</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -1599,9 +1959,27 @@
       <c r="N18" s="12">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="O18" s="29">
+        <v>2</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>1</v>
+      </c>
+      <c r="R18" s="25">
+        <v>0</v>
+      </c>
+      <c r="S18" s="25">
+        <v>0</v>
+      </c>
+      <c r="T18" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -1643,9 +2021,27 @@
       <c r="N19" s="12">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="O19" s="29">
+        <v>2</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>0</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0</v>
+      </c>
+      <c r="T19" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -1687,9 +2083,27 @@
       <c r="N20" s="12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="O20" s="29">
+        <v>2</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0</v>
+      </c>
+      <c r="S20" s="25">
+        <v>0</v>
+      </c>
+      <c r="T20" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -1731,9 +2145,27 @@
       <c r="N21" s="12">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="O21" s="29">
+        <v>5</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0</v>
+      </c>
+      <c r="R21" s="25">
+        <v>1</v>
+      </c>
+      <c r="S21" s="25">
+        <v>0</v>
+      </c>
+      <c r="T21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -1775,9 +2207,27 @@
       <c r="N22" s="12">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="O22" s="29">
+        <v>0</v>
+      </c>
+      <c r="P22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>0</v>
+      </c>
+      <c r="R22" s="25">
+        <v>1</v>
+      </c>
+      <c r="S22" s="25">
+        <v>0</v>
+      </c>
+      <c r="T22" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -1819,9 +2269,27 @@
       <c r="N23" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="O23" s="29">
+        <v>1</v>
+      </c>
+      <c r="P23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>1</v>
+      </c>
+      <c r="R23" s="25">
+        <v>0</v>
+      </c>
+      <c r="S23" s="25">
+        <v>0</v>
+      </c>
+      <c r="T23" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -1863,9 +2331,27 @@
       <c r="N24" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="O24" s="29">
+        <v>0</v>
+      </c>
+      <c r="P24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>0</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0</v>
+      </c>
+      <c r="S24" s="25">
+        <v>0</v>
+      </c>
+      <c r="T24" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -1907,9 +2393,27 @@
       <c r="N25" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="O25" s="29">
+        <v>0</v>
+      </c>
+      <c r="P25" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>0</v>
+      </c>
+      <c r="R25" s="25">
+        <v>0</v>
+      </c>
+      <c r="S25" s="25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -1951,9 +2455,27 @@
       <c r="N26" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="O26" s="29">
+        <v>0</v>
+      </c>
+      <c r="P26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>0</v>
+      </c>
+      <c r="R26" s="25">
+        <v>0</v>
+      </c>
+      <c r="S26" s="25">
+        <v>0</v>
+      </c>
+      <c r="T26" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -1995,9 +2517,27 @@
       <c r="N27" s="12">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="O27" s="29">
+        <v>1</v>
+      </c>
+      <c r="P27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>0</v>
+      </c>
+      <c r="R27" s="25">
+        <v>0</v>
+      </c>
+      <c r="S27" s="25">
+        <v>0</v>
+      </c>
+      <c r="T27" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -2039,9 +2579,27 @@
       <c r="N28" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="O28" s="29">
+        <v>0</v>
+      </c>
+      <c r="P28" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>0</v>
+      </c>
+      <c r="R28" s="25">
+        <v>0</v>
+      </c>
+      <c r="S28" s="25">
+        <v>0</v>
+      </c>
+      <c r="T28" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -2083,9 +2641,27 @@
       <c r="N29" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="O29" s="29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>0</v>
+      </c>
+      <c r="R29" s="25">
+        <v>0</v>
+      </c>
+      <c r="S29" s="25">
+        <v>0</v>
+      </c>
+      <c r="T29" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -2127,8 +2703,26 @@
       <c r="N30" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="31">
+        <v>0</v>
+      </c>
+      <c r="P30" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>0</v>
+      </c>
+      <c r="R30" s="26">
+        <v>0</v>
+      </c>
+      <c r="S30" s="26">
+        <v>0</v>
+      </c>
+      <c r="T30" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>50</v>
       </c>
@@ -2165,13 +2759,32 @@
       <c r="N31" s="18">
         <v>3.92</v>
       </c>
+      <c r="O31" s="33">
+        <v>113</v>
+      </c>
+      <c r="P31" s="34">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="34">
+        <v>12</v>
+      </c>
+      <c r="R31" s="34">
+        <v>6</v>
+      </c>
+      <c r="S31" s="34">
+        <v>12</v>
+      </c>
+      <c r="T31" s="35">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="O1:T1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://fbref.com/en/players/6f51e382/Marc-Andre-ter-Stegen" xr:uid="{219FB027-A044-4A03-8EE6-615CE9D4D066}"/>
